--- a/biology/Botanique/Diegodendraceae/Diegodendraceae.xlsx
+++ b/biology/Botanique/Diegodendraceae/Diegodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Diégodendracées regroupe des plantes dicotylédones ; elle ne comprend qu'un seul genre Diegodendron ne renfermant qu'une seule espèce Diegodendron humbertii.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Diegodendron (es), composé de Diego donné en 1964 par René Capuron en référence à la ville de Diégo-Suarez (Antsiranana, Madagascar), localité où cette plante est endémique[1] et du grec δενδρο / dendro, arbre.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Diegodendron (es), composé de Diego donné en 1964 par René Capuron en référence à la ville de Diégo-Suarez (Antsiranana, Madagascar), localité où cette plante est endémique et du grec δενδρο / dendro, arbre.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénétique APG II (2003)[2], cette famille est optionnelle, alternativement cette espèce peut être incluse dans les Bixacées.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide ; cette espèce est incorporée dans la famille Bixaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénétique APG II (2003), cette famille est optionnelle, alternativement cette espèce peut être incluse dans les Bixacées.
+En classification phylogénétique APG III (2009) cette famille est invalide ; cette espèce est incorporée dans la famille Bixaceae.
 </t>
         </is>
       </c>
